--- a/Presentacion 1/resultados_ridge_pisa.xlsx
+++ b/Presentacion 1/resultados_ridge_pisa.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados_Ciencias" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados_Matemática" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados_Lengua" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultados_Ciencias" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
   <si>
     <t>coeficiente_ridge</t>
   </si>
@@ -28,123 +30,123 @@
     <t>PAREDINT</t>
   </si>
   <si>
+    <t>ST004D01T_2</t>
+  </si>
+  <si>
     <t>ESCS</t>
   </si>
   <si>
-    <t>ST004D01T_2</t>
-  </si>
-  <si>
     <t>FAMCON</t>
   </si>
   <si>
+    <t>CNT_URY</t>
+  </si>
+  <si>
     <t>BMMJ1</t>
   </si>
   <si>
-    <t>CNT_URY</t>
+    <t>BFMJ2</t>
+  </si>
+  <si>
+    <t>CNT_CHL</t>
+  </si>
+  <si>
+    <t>GROSAGR</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>MATHEASE</t>
+  </si>
+  <si>
+    <t>CNT_COL</t>
+  </si>
+  <si>
+    <t>CNT_PER</t>
   </si>
   <si>
     <t>COGACRCO</t>
   </si>
   <si>
-    <t>CNT_CHL</t>
-  </si>
-  <si>
-    <t>BFMJ2</t>
-  </si>
-  <si>
-    <t>GROSAGR</t>
+    <t>FISCED</t>
+  </si>
+  <si>
+    <t>MATHPERS</t>
+  </si>
+  <si>
+    <t>BSMJ</t>
+  </si>
+  <si>
+    <t>EXPECEDU</t>
   </si>
   <si>
     <t>CURIOAGR</t>
   </si>
   <si>
-    <t>BSMJ</t>
-  </si>
-  <si>
-    <t>FISCED</t>
+    <t>MATHPREF</t>
+  </si>
+  <si>
+    <t>CREATOP</t>
+  </si>
+  <si>
+    <t>MISCED</t>
+  </si>
+  <si>
+    <t>BELONG</t>
+  </si>
+  <si>
+    <t>PERSEVAGR</t>
+  </si>
+  <si>
+    <t>DURECEC</t>
   </si>
   <si>
     <t>OPENART</t>
   </si>
   <si>
-    <t>CNT_COL</t>
-  </si>
-  <si>
-    <t>GRADE</t>
-  </si>
-  <si>
-    <t>MATHPERS</t>
-  </si>
-  <si>
-    <t>EXPECEDU</t>
-  </si>
-  <si>
-    <t>MATHEASE</t>
-  </si>
-  <si>
-    <t>CREATOP</t>
-  </si>
-  <si>
     <t>ISCEDP</t>
   </si>
   <si>
-    <t>MISCED</t>
-  </si>
-  <si>
-    <t>PERSEVAGR</t>
-  </si>
-  <si>
     <t>AGE</t>
   </si>
   <si>
+    <t>RELATST</t>
+  </si>
+  <si>
+    <t>EMOCOAGR</t>
+  </si>
+  <si>
     <t>DISCLIM</t>
   </si>
   <si>
-    <t>EMOCOAGR</t>
-  </si>
-  <si>
-    <t>DURECEC</t>
-  </si>
-  <si>
-    <t>RELATST</t>
+    <t>EXPOFA</t>
   </si>
   <si>
     <t>CREATFAM</t>
   </si>
   <si>
-    <t>BELONG</t>
-  </si>
-  <si>
-    <t>MATHPREF</t>
-  </si>
-  <si>
     <t>BULLIED</t>
   </si>
   <si>
-    <t>EXPOFA</t>
+    <t>CNT_MEX</t>
+  </si>
+  <si>
+    <t>CNT_PAN</t>
+  </si>
+  <si>
+    <t>CNT_PRY</t>
+  </si>
+  <si>
+    <t>CNT_DOM</t>
+  </si>
+  <si>
+    <t>CNT_CRI</t>
   </si>
   <si>
     <t>CNT_SLV</t>
   </si>
   <si>
-    <t>CNT_CRI</t>
-  </si>
-  <si>
-    <t>CNT_PAN</t>
-  </si>
-  <si>
-    <t>CNT_PRY</t>
-  </si>
-  <si>
-    <t>CNT_DOM</t>
-  </si>
-  <si>
-    <t>CNT_MEX</t>
-  </si>
-  <si>
-    <t>SISCO</t>
-  </si>
-  <si>
     <t>CNT_GTM</t>
   </si>
   <si>
@@ -154,76 +156,73 @@
     <t>IMMIG_2</t>
   </si>
   <si>
+    <t>CNT_BRA</t>
+  </si>
+  <si>
+    <t>FEELSAFE</t>
+  </si>
+  <si>
     <t>TARDYSD_2</t>
   </si>
   <si>
+    <t>MATHMOT</t>
+  </si>
+  <si>
+    <t>TEACHSUP</t>
+  </si>
+  <si>
+    <t>SKIPPING</t>
+  </si>
+  <si>
     <t>WORKHOME</t>
   </si>
   <si>
-    <t>CNT_BRA</t>
-  </si>
-  <si>
-    <t>TEACHSUP</t>
+    <t>TARDYSD_1</t>
+  </si>
+  <si>
+    <t>MISSSC</t>
+  </si>
+  <si>
+    <t>EXPO21ST</t>
+  </si>
+  <si>
+    <t>MATHEF21</t>
   </si>
   <si>
     <t>CREATEFF</t>
   </si>
   <si>
-    <t>MATHMOT</t>
-  </si>
-  <si>
-    <t>CNT_PER</t>
-  </si>
-  <si>
-    <t>TARDYSD_1</t>
-  </si>
-  <si>
-    <t>SKIPPING</t>
-  </si>
-  <si>
-    <t>MISSSC</t>
-  </si>
-  <si>
-    <t>FEELSAFE</t>
+    <t>INFOSEEK</t>
   </si>
   <si>
     <t>SCHRISK</t>
   </si>
   <si>
-    <t>EXPO21ST</t>
-  </si>
-  <si>
     <t>FAMSUP</t>
   </si>
   <si>
-    <t>INFOSEEK</t>
-  </si>
-  <si>
-    <t>MATHEF21</t>
-  </si>
-  <si>
     <t>CREATSCH</t>
   </si>
   <si>
+    <t>ICTRES</t>
+  </si>
+  <si>
+    <t>STUDYHMW</t>
+  </si>
+  <si>
+    <t>HISEI</t>
+  </si>
+  <si>
     <t>COGACMCO</t>
   </si>
   <si>
-    <t>STUDYHMW</t>
+    <t>CREATAS</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
   </si>
   <si>
     <t>ANXMAT</t>
-  </si>
-  <si>
-    <t>HISEI</t>
-  </si>
-  <si>
-    <t>REPEAT</t>
-  </si>
-  <si>
-    <t>ICTRES</t>
-  </si>
-  <si>
-    <t>CREATAS</t>
   </si>
   <si>
     <t>WORKPAY</t>
@@ -590,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20.0991331975836</v>
+        <v>15.9382448700562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -614,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.48740077794879</v>
+        <v>15.20277572826643</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -622,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11.72335543507857</v>
+        <v>10.55118939238702</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -630,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.56319897709466</v>
+        <v>9.511808025399262</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -638,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10.35044345527012</v>
+        <v>8.866024503879885</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -646,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.432684445299003</v>
+        <v>8.445585482621766</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -654,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.983997339887424</v>
+        <v>7.226025073507813</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -662,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.439623718039684</v>
+        <v>6.74828517553658</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -670,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.471729912762406</v>
+        <v>6.500744890527974</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -678,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.435107437156205</v>
+        <v>5.124468538787255</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -686,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.341040723770959</v>
+        <v>4.475939396518044</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -694,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.265592530091027</v>
+        <v>4.227991098861494</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -702,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5.776979586171706</v>
+        <v>4.224779505279216</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -710,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.500082176991995</v>
+        <v>3.976839274813784</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -718,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.216746344998086</v>
+        <v>3.851045457002755</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -726,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.014942573996512</v>
+        <v>3.819675636377795</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -734,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.927976579695908</v>
+        <v>3.718984060642674</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -742,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.741438993882525</v>
+        <v>3.576934743482411</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -750,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.640627019145057</v>
+        <v>3.51994467431453</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -758,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.020027072094678</v>
+        <v>3.192868922310566</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -766,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.947186819367374</v>
+        <v>3.122235719169524</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -774,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.270695631246298</v>
+        <v>2.874860528589807</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -782,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.694265376528032</v>
+        <v>2.529907891432572</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -790,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.605883420928791</v>
+        <v>2.494290350071225</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -798,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.363556755364641</v>
+        <v>1.83120016401773</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -806,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.343637436451189</v>
+        <v>1.525117682500536</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -814,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.339246786365891</v>
+        <v>1.432939709260523</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -822,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.143959772276673</v>
+        <v>1.064169489527359</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -830,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.141069710422585</v>
+        <v>1.062357796373931</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -838,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.063542103443581</v>
+        <v>0.8976795448412531</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -846,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.9026503932171508</v>
+        <v>0.8232569719880871</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -854,7 +853,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.7883181966791426</v>
+        <v>0.6783117938110621</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -862,7 +861,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.5873943414506897</v>
+        <v>0.6729506954615658</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -870,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.5527630018107317</v>
+        <v>0.2113297301780861</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -878,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.4151539278767586</v>
+        <v>0.2001411907441479</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -886,7 +885,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.08528818553284623</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -950,7 +949,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.2463428917219517</v>
+        <v>-0.04875778695041078</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -958,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.2840955530395775</v>
+        <v>-0.2999061919804262</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -966,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.3722117514456045</v>
+        <v>-0.6423795996161061</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -974,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1.062649954681646</v>
+        <v>-0.8663858964498701</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -982,7 +981,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.117274931302234</v>
+        <v>-0.9067439295415207</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -990,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1.12302557821522</v>
+        <v>-1.095908777710349</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -998,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.359216256606601</v>
+        <v>-1.245600435473037</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1006,7 +1005,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.522622814841782</v>
+        <v>-1.290159123620185</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1014,7 +1013,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.940565178695749</v>
+        <v>-1.883956241026894</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1022,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1.997170755987327</v>
+        <v>-2.060654639722774</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1030,7 +1029,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-2.2429277317828</v>
+        <v>-2.167174224791779</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1038,7 +1037,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-2.350381763930045</v>
+        <v>-2.523700853703247</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1046,7 +1045,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-2.711142341967867</v>
+        <v>-2.890346130038211</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1054,7 +1053,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-2.85537143661057</v>
+        <v>-2.913449936434461</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1062,7 +1061,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3.326260806078523</v>
+        <v>-2.918416650463257</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1070,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3.794284388770194</v>
+        <v>-3.256430500971636</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1078,7 +1077,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-3.855515465283645</v>
+        <v>-3.489420718631635</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1086,7 +1085,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-4.216228987603472</v>
+        <v>-3.757525140289545</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1094,7 +1093,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-4.246030089897431</v>
+        <v>-4.373365438624674</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1102,7 +1101,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-4.860611364100123</v>
+        <v>-4.646026234613856</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1110,7 +1109,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-4.969454333378621</v>
+        <v>-5.470549697817404</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1118,7 +1117,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-5.130065275785668</v>
+        <v>-5.754223930435685</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1126,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-6.673277451828312</v>
+        <v>-6.485445278932332</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1134,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-7.314807811743055</v>
+        <v>-6.610589061823635</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1142,7 +1141,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-7.991964572040352</v>
+        <v>-6.680805061054087</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1150,7 +1149,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-8.3638295129889</v>
+        <v>-7.200063365837721</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1158,7 +1157,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-9.14271808445357</v>
+        <v>-7.427592516924079</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1166,15 +1165,1179 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-9.502362324575394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>-20.14913600707931</v>
+        <v>-18.60149570477677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>18.43372873366262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>13.30125519626012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12.7585089548063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10.72427217756282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>8.233082036355484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.894785207038694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7.611201175134056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7.281624259833706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.771725360699804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6.17722401295919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>6.076576791922673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>5.911308793441233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>4.781605057865761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>4.630104277059615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>4.000101440379723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>3.930888700065506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>3.675842343849467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3.442483243926176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>3.415284502039142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>2.486935249976035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2.438432865558013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2.356954198244125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>2.087769814916896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>2.061932148971778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>2.017195335960253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1.632412045744728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1.29077863618005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.244873128349127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1.181544986783592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>1.029575411059568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.8183226290460368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.5729054982686534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>0.2681200056811122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.1517415685043204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>0.1375779902937779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>-0.1039863563157104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>-0.2282086734192603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>-0.4215023435659759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>-0.45806415719494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>-0.5244276350988866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>-0.6661074580213153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>-0.817305769862088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>-0.9943065557734059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>-1.769185575300298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>-1.886828279276877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>-2.121314096103589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>-2.589046154998186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>-2.812250153079731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>-3.462782255385264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>-3.606754165433046</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>-3.61059874552376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>-3.619877950901987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61">
+        <v>-3.628245455775357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>-4.332031452564351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>-5.170142299342274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>-5.451561742902058</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>-6.383307445017522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>-6.515490398191746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67">
+        <v>-6.800441642320806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>-7.430449883753475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>-9.579508294383601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>-10.16227841970095</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>-10.50120750267243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>-22.25615043481511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20.09913319763096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>13.48740077799124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11.7233554351149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10.56319897713843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10.35044345529309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.43268444534101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7.98399733990891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7.439623718026084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>6.471729912782138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6.435107437222655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>6.341040723789945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.265592530087758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>5.776979586196916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>4.500082176983064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>4.216746345026621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>4.014942573983859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>3.927976579668041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>3.741438993894462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3.640627019183228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3.020027072088325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>2.947186819402134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2.27069563127435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>1.694265376547548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1.605883420966322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1.363556755383627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1.343637436446841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1.339246786396529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1.143959772295972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1.141069710426166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1.063542103484338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.902650393251534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>0.7883181967195014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>0.587394341482522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.5527630017675023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.4151539278944085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>-0.2463428917094529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>-0.2840955530443239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>-0.3722117514341519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>-1.062649954679593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-1.117274931304451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>-1.123025578162441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>-1.35921625659617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-1.522622814810973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>-1.940565178699075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>-1.997170756001507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>-2.242927731800023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>-2.350381763982995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56">
+        <v>-2.711142341934479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>-2.855371436636206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>-3.326260806054648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>-3.794284388770109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-3.855515465275573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>-4.216228987578774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>-4.246030089863893</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>-4.860611364078579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>-4.969454333386977</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>-5.130065275809727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-6.673277451805831</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>-7.314807811766144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68">
+        <v>-7.991964571991234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>-8.363829512988218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>-9.142718084450493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>-9.502362324574467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>-20.1491360070422</v>
       </c>
     </row>
   </sheetData>

--- a/Presentacion 1/resultados_ridge_pisa.xlsx
+++ b/Presentacion 1/resultados_ridge_pisa.xlsx
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.9382448700562</v>
+        <v>15.93824486997306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.20277572826643</v>
+        <v>15.20277572821342</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10.55118939238702</v>
+        <v>10.55118939230789</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.511808025399262</v>
+        <v>9.51180802539244</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.866024503879885</v>
+        <v>8.866024503781873</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.445585482621766</v>
+        <v>8.445585482565789</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.226025073507813</v>
+        <v>7.226025073503934</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.74828517553658</v>
+        <v>6.748285175463621</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.500744890527974</v>
+        <v>6.500744890468866</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.124468538787255</v>
+        <v>5.124468538741084</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.475939396518044</v>
+        <v>4.475939396510284</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.227991098861494</v>
+        <v>4.227991098823736</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.224779505279216</v>
+        <v>4.224779505262518</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.976839274813784</v>
+        <v>3.976839274820634</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.851045457002755</v>
+        <v>3.851045457025847</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -725,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.819675636377795</v>
+        <v>3.819675636375756</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -733,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.718984060642674</v>
+        <v>3.718984060573206</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -741,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.576934743482411</v>
+        <v>3.576934743452171</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -749,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.51994467431453</v>
+        <v>3.519944674299154</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -757,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.192868922310566</v>
+        <v>3.192868922288653</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -765,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.122235719169524</v>
+        <v>3.122235719155299</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.874860528589807</v>
+        <v>2.874860528565307</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -781,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.529907891432572</v>
+        <v>2.52990789140101</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -789,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.494290350071225</v>
+        <v>2.494290349994927</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -797,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.83120016401773</v>
+        <v>1.831200164002652</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -805,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.525117682500536</v>
+        <v>1.525117682483881</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -813,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.432939709260523</v>
+        <v>1.432939709243328</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.064169489527359</v>
+        <v>1.064169489532759</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -829,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.062357796373931</v>
+        <v>1.06235779633414</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -837,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.8976795448412531</v>
+        <v>0.8976795448397752</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.8232569719880871</v>
+        <v>0.8232569719696414</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -853,7 +853,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.6783117938110621</v>
+        <v>0.6783117937990824</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -861,7 +861,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.6729506954615658</v>
+        <v>0.6729506954497992</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.2113297301780861</v>
+        <v>0.2113297301704335</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -877,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.2001411907441479</v>
+        <v>0.2001411907163799</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -885,7 +885,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.08528818553284623</v>
+        <v>0.08528818555238615</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -949,7 +949,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.04875778695041078</v>
+        <v>-0.04875778694288613</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -957,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.2999061919804262</v>
+        <v>-0.2999061919849453</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -965,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.6423795996161061</v>
+        <v>-0.6423795996082617</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -973,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.8663858964498701</v>
+        <v>-0.8663858964585884</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -981,7 +981,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.9067439295415207</v>
+        <v>-0.9067439295573081</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1.095908777710349</v>
+        <v>-1.095908777713433</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -997,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.245600435473037</v>
+        <v>-1.245600435467836</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.290159123620185</v>
+        <v>-1.290159123604042</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.883956241026894</v>
+        <v>-1.883956241010793</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-2.060654639722774</v>
+        <v>-2.060654639705831</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-2.167174224791779</v>
+        <v>-2.167174224760444</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-2.523700853703247</v>
+        <v>-2.52370085371831</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-2.890346130038211</v>
+        <v>-2.890346130075613</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-2.913449936434461</v>
+        <v>-2.913449936472176</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-2.918416650463257</v>
+        <v>-2.91841665048625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3.256430500971636</v>
+        <v>-3.256430500971959</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-3.489420718631635</v>
+        <v>-3.489420718646443</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-3.757525140289545</v>
+        <v>-3.757525140302221</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-4.373365438624674</v>
+        <v>-4.373365438700489</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-4.646026234613856</v>
+        <v>-4.646026234601607</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-5.470549697817404</v>
+        <v>-5.470549697890178</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-5.754223930435685</v>
+        <v>-5.754223930423848</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-6.485445278932332</v>
+        <v>-6.485445278942052</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-6.610589061823635</v>
+        <v>-6.610589061812504</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-6.680805061054087</v>
+        <v>-6.680805061019555</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-7.200063365837721</v>
+        <v>-7.200063365813264</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-7.427592516924079</v>
+        <v>-7.427592516935903</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-18.60149570477677</v>
+        <v>-18.60149570485669</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.43372873366262</v>
+        <v>18.43372873357248</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13.30125519626012</v>
+        <v>13.30125519617809</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.7585089548063</v>
+        <v>12.75850895477538</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10.72427217756282</v>
+        <v>10.72427217746477</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>8.233082036355484</v>
+        <v>8.233082036291592</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.894785207038694</v>
+        <v>7.894785206981553</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.611201175134056</v>
+        <v>7.611201175145084</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>7.281624259833706</v>
+        <v>7.281624259822514</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.771725360699804</v>
+        <v>6.77172536063685</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.17722401295919</v>
+        <v>6.177224012910123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>6.076576791922673</v>
+        <v>6.076576791920331</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5.911308793441233</v>
+        <v>5.911308793411081</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>4.781605057865761</v>
+        <v>4.781605057828074</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>4.630104277059615</v>
+        <v>4.630104277019086</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>4.000101440379723</v>
+        <v>4.000101440350818</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>3.930888700065506</v>
+        <v>3.930888700067271</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>3.675842343849467</v>
+        <v>3.67584234381961</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.442483243926176</v>
+        <v>3.442483243855378</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.415284502039142</v>
+        <v>3.415284501998258</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2.486935249976035</v>
+        <v>2.486935249905457</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>2.438432865558013</v>
+        <v>2.438432865532235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.356954198244125</v>
+        <v>2.356954198184383</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>2.087769814916896</v>
+        <v>2.08776981492997</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>2.061932148971778</v>
+        <v>2.061932148924598</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>2.017195335960253</v>
+        <v>2.01719533594985</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>1.632412045744728</v>
+        <v>1.6324120457042</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>1.29077863618005</v>
+        <v>1.290778636171865</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.244873128349127</v>
+        <v>1.2448731283406</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>1.181544986783592</v>
+        <v>1.181544986816888</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>1.029575411059568</v>
+        <v>1.029575411074802</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8183226290460368</v>
+        <v>0.8183226290441326</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5729054982686534</v>
+        <v>0.5729054982454613</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="B34">
-        <v>0.2681200056811122</v>
+        <v>0.2681200056798048</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1517415685043204</v>
+        <v>0.1517415684791956</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>0.1375779902937779</v>
+        <v>0.1375779903059993</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.1039863563157104</v>
+        <v>-0.1039863563094059</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>32</v>
       </c>
       <c r="B45">
-        <v>-0.2282086734192603</v>
+        <v>-0.2282086734255842</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B46">
-        <v>-0.4215023435659759</v>
+        <v>-0.4215023435434944</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.45806415719494</v>
+        <v>-0.4580641571966453</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>-0.5244276350988866</v>
+        <v>-0.524427635115984</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.6661074580213153</v>
+        <v>-0.6661074579979527</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>-0.817305769862088</v>
+        <v>-0.8173057698624717</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.9943065557734059</v>
+        <v>-0.9943065558251192</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <v>-1.769185575300298</v>
+        <v>-1.76918557529234</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>-1.886828279276877</v>
+        <v>-1.886828279257031</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>-2.121314096103589</v>
+        <v>-2.121314096082642</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>-2.589046154998186</v>
+        <v>-2.589046155020242</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>-2.812250153079731</v>
+        <v>-2.812250153068362</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>54</v>
       </c>
       <c r="B57">
-        <v>-3.462782255385264</v>
+        <v>-3.462782255338482</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>-3.606754165433046</v>
+        <v>-3.60675416542712</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>-3.61059874552376</v>
+        <v>-3.61059874552052</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>-3.619877950901987</v>
+        <v>-3.619877950939518</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>47</v>
       </c>
       <c r="B61">
-        <v>-3.628245455775357</v>
+        <v>-3.628245455776494</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>58</v>
       </c>
       <c r="B62">
-        <v>-4.332031452564351</v>
+        <v>-4.33203145259057</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-5.170142299342274</v>
+        <v>-5.170142299339119</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <v>-5.451561742902058</v>
+        <v>-5.451561742919637</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-6.383307445017522</v>
+        <v>-6.383307445087439</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>62</v>
       </c>
       <c r="B66">
-        <v>-6.515490398191746</v>
+        <v>-6.515490398272732</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>56</v>
       </c>
       <c r="B67">
-        <v>-6.800441642320806</v>
+        <v>-6.800441642355054</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-7.430449883753475</v>
+        <v>-7.430449883741005</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>-9.579508294383601</v>
+        <v>-9.57950829436038</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>66</v>
       </c>
       <c r="B70">
-        <v>-10.16227841970095</v>
+        <v>-10.16227841970829</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-10.50120750267243</v>
+        <v>-10.50120750266947</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-22.25615043481511</v>
+        <v>-22.25615043490197</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20.09913319763096</v>
+        <v>20.09913319756104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.48740077799124</v>
+        <v>13.48740077795304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11.7233554351149</v>
+        <v>11.72335543502089</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10.56319897713843</v>
+        <v>10.56319897704009</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.35044345529309</v>
+        <v>10.35044345528485</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.43268444534101</v>
+        <v>8.432684445292978</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7.98399733990891</v>
+        <v>7.983997339839703</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.439623718026084</v>
+        <v>7.43962371804804</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>6.471729912782138</v>
+        <v>6.471729912769703</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.435107437222655</v>
+        <v>6.435107437185025</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>6.341040723789945</v>
+        <v>6.341040723724845</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.265592530087758</v>
+        <v>6.26559253007332</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>5.776979586196916</v>
+        <v>5.776979586188872</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>4.500082176983064</v>
+        <v>4.500082176965861</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>4.216746345026621</v>
+        <v>4.2167463449384</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>4.014942573983859</v>
+        <v>4.014942573979226</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>3.927976579668041</v>
+        <v>3.927976579683502</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>3.741438993894462</v>
+        <v>3.741438993864222</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.640627019183228</v>
+        <v>3.640627019163844</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.020027072088325</v>
+        <v>3.020027072061453</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>2.947186819402134</v>
+        <v>2.947186819398496</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.27069563127435</v>
+        <v>2.270695631238965</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>1.694265376547548</v>
+        <v>1.694265376511339</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.605883420966322</v>
+        <v>1.605883420889086</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.363556755383627</v>
+        <v>1.363556755369274</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>1.339246786396529</v>
+        <v>1.339246786375725</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>1.143959772295972</v>
+        <v>1.143959772267692</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>1.141069710426166</v>
+        <v>1.141069710412182</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.063542103484338</v>
+        <v>1.063542103464926</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.902650393251534</v>
+        <v>0.9026503932288392</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>25</v>
       </c>
       <c r="B33">
-        <v>0.7883181967195014</v>
+        <v>0.7883181967040684</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="B34">
-        <v>0.587394341482522</v>
+        <v>0.5873943414689506</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.5527630017675023</v>
+        <v>0.5527630018012246</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4151539278944085</v>
+        <v>0.4151539278654823</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.2463428917094529</v>
+        <v>-0.2463428917090766</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.2840955530443239</v>
+        <v>-0.2840955530465692</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.3722117514341519</v>
+        <v>-0.3722117514498962</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>-1.062649954679593</v>
+        <v>-1.062649954680836</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.117274931304451</v>
+        <v>-1.117274931304564</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-1.123025578162441</v>
+        <v>-1.123025578167329</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>57</v>
       </c>
       <c r="B50">
-        <v>-1.35921625659617</v>
+        <v>-1.359216256641496</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.522622814810973</v>
+        <v>-1.522622814821773</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>-1.940565178699075</v>
+        <v>-1.94056517870888</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>-1.997170756001507</v>
+        <v>-1.997170755996137</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>-2.242927731800023</v>
+        <v>-2.242927731775012</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-2.350381763982995</v>
+        <v>-2.350381763940689</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>47</v>
       </c>
       <c r="B56">
-        <v>-2.711142341934479</v>
+        <v>-2.711142341954059</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>-2.855371436636206</v>
+        <v>-2.855371436622761</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>-3.326260806054648</v>
+        <v>-3.32626080608992</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>-3.794284388770109</v>
+        <v>-3.794284388779033</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-3.855515465275573</v>
+        <v>-3.85551546530565</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>-4.216228987578774</v>
+        <v>-4.216228987612226</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-4.246030089863893</v>
+        <v>-4.246030089878374</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-4.860611364078579</v>
+        <v>-4.860611364075453</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-4.969454333386977</v>
+        <v>-4.969454333390331</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-5.130065275809727</v>
+        <v>-5.130065275787217</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-6.673277451805831</v>
+        <v>-6.673277451880352</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>-7.314807811766144</v>
+        <v>-7.314807811752473</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>62</v>
       </c>
       <c r="B68">
-        <v>-7.991964571991234</v>
+        <v>-7.991964572051153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>-8.363829512988218</v>
+        <v>-8.363829513011808</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-9.142718084450493</v>
+        <v>-9.142718084445505</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-9.502362324574467</v>
+        <v>-9.502362324605826</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-20.1491360070422</v>
+        <v>-20.14913600713641</v>
       </c>
     </row>
   </sheetData>
